--- a/docs/extension-complex.xlsx
+++ b/docs/extension-complex.xlsx
@@ -286,7 +286,7 @@
     <t>Extension.extension.valueString</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.fhir.org/guides/mfhir/StructureDefinition/extension-complex"/&gt;</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.fhir.org/guides/test3/StructureDefinition/extension-complex"/&gt;</t>
   </si>
   <si>
     <t>base64Binary

--- a/docs/extension-complex.xlsx
+++ b/docs/extension-complex.xlsx
@@ -290,7 +290,7 @@
   </si>
   <si>
     <t>base64Binary {[]} {[]}
-boolean {[]} {[]}canonical {[]} {[]}code {[]} {[]}date {[]} {[]}dateTime {[]} {[]}decimal {[]} {[]}id {[]} {[]}instant {[]} {[]}integer {[]} {[]}markdown {[]} {[]}oid {[]} {[]}positiveInt {[]} {[]}string {[]} {[]}time {[]} {[]}unsignedInt {[]} {[]}uri {[]} {[]}url {[]} {[]}uuid {[]} {[]}Address {[]} {[]}Age {[]} {[]}Annotation {[]} {[]}Attachment {[]} {[]}CodeableConcept {[]} {[]}Coding {[]} {[]}ContactPoint {[]} {[]}Count {[]} {[]}Distance {[]} {[]}Duration {[]} {[]}HumanName {[]} {[]}Identifier {[]} {[]}Money {[]} {[]}Period {[]} {[]}Quantity {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}Reference {[]} {[]}SampledData {[]} {[]}Signature {[]} {[]}Timing {[]} {[]}ParameterDefinition {[]} {[]}DataRequirement {[]} {[]}RelatedArtifact {[]} {[]}ContactDetail {[]} {[]}Contributor {[]} {[]}TriggerDefinition {[]} {[]}UsageContext {[]} {[]}Dosage {[]} {[]}</t>
+boolean {[]} {[]}canonical {[]} {[]}code {[]} {[]}date {[]} {[]}dateTime {[]} {[]}decimal {[]} {[]}id {[]} {[]}instant {[]} {[]}integer {[]} {[]}markdown {[]} {[]}oid {[]} {[]}positiveInt {[]} {[]}string {[]} {[]}time {[]} {[]}unsignedInt {[]} {[]}uri {[]} {[]}url {[]} {[]}uuid {[]} {[]}Address {[]} {[]}Age {[]} {[]}Annotation {[]} {[]}Attachment {[]} {[]}CodeableConcept {[]} {[]}Coding {[]} {[]}ContactPoint {[]} {[]}Count {[]} {[]}Distance {[]} {[]}Duration {[]} {[]}HumanName {[]} {[]}Identifier {[]} {[]}Money {[]} {[]}Period {[]} {[]}Quantity {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}Reference {[]} {[]}SampledData {[]} {[]}Signature {[]} {[]}Timing {[]} {[]}ParameterDefinition {[]} {[]}DataRequirement {[]} {[]}RelatedArtifact {[]} {[]}ContactDetail {[]} {[]}Contributor {[]} {[]}TriggerDefinition {[]} {[]}Expression {[]} {[]}UsageContext {[]} {[]}Dosage {[]} {[]}</t>
   </si>
 </sst>
 </file>

--- a/docs/extension-complex.xlsx
+++ b/docs/extension-complex.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="89">
   <si>
     <t>Path</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Extension</t>
+  </si>
+  <si>
+    <t>complex</t>
   </si>
   <si>
     <t/>
@@ -150,7 +153,7 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
@@ -176,11 +179,21 @@
     <t>Extension.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -208,19 +221,6 @@
     <t>Extension.extension.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Extension.extension.url</t>
   </si>
   <si>
@@ -249,9 +249,6 @@
     <t>Extension.extension.valueCode</t>
   </si>
   <si>
-    <t>valueCode</t>
-  </si>
-  <si>
     <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
@@ -266,6 +263,9 @@
   </si>
   <si>
     <t>A bunch of example codes</t>
+  </si>
+  <si>
+    <t>http://www.fhir.org/guides/test3/ValueSet/blah-codes</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -472,7 +472,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="25.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.6015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.8515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
@@ -600,604 +600,608 @@
       <c r="A2" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="C2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>25</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" hidden="true">
@@ -1206,23 +1210,23 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>67</v>
@@ -1238,65 +1242,65 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
         <v>71</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>73</v>
@@ -1306,99 +1310,97 @@
       <c r="A9" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X9" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="X9" t="s" s="2">
+      <c r="Y9" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Y9" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="Z9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -1406,32 +1408,32 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>83</v>
@@ -1442,270 +1444,270 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" hidden="true">
@@ -1714,23 +1716,23 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>67</v>
@@ -1746,65 +1748,65 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
         <v>85</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>73</v>
@@ -1816,95 +1818,95 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
@@ -1916,23 +1918,23 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>67</v>
@@ -1948,65 +1950,65 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>73</v>
@@ -2018,95 +2020,95 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>73</v>

--- a/docs/extension-complex.xlsx
+++ b/docs/extension-complex.xlsx
@@ -224,7 +224,7 @@
     <t>Extension.extension.url</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">null {[]} {[]}
 </t>
   </si>
   <si>

--- a/docs/extension-complex.xlsx
+++ b/docs/extension-complex.xlsx
@@ -445,9 +445,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.01953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.49609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.91015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
@@ -455,7 +455,7 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="45.64453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="42.953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -468,14 +468,14 @@
     <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="25.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.8515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="24.68359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.63671875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.25" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="17.44140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>

--- a/docs/extension-complex.xlsx
+++ b/docs/extension-complex.xlsx
@@ -287,7 +287,7 @@
   </si>
   <si>
     <t>base64Binary {[]} {[]}
-boolean {[]} {[]}canonical {[]} {[]}code {[]} {[]}date {[]} {[]}dateTime {[]} {[]}decimal {[]} {[]}id {[]} {[]}instant {[]} {[]}integer {[]} {[]}markdown {[]} {[]}oid {[]} {[]}positiveInt {[]} {[]}string {[]} {[]}time {[]} {[]}unsignedInt {[]} {[]}uri {[]} {[]}url {[]} {[]}uuid {[]} {[]}Address {[]} {[]}Age {[]} {[]}Annotation {[]} {[]}Attachment {[]} {[]}CodeableConcept {[]} {[]}Coding {[]} {[]}ContactPoint {[]} {[]}Count {[]} {[]}Distance {[]} {[]}Duration {[]} {[]}HumanName {[]} {[]}Identifier {[]} {[]}Money {[]} {[]}Period {[]} {[]}Quantity {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}Reference {[]} {[]}SampledData {[]} {[]}Signature {[]} {[]}Timing {[]} {[]}ParameterDefinition {[]} {[]}DataRequirement {[]} {[]}RelatedArtifact {[]} {[]}ContactDetail {[]} {[]}Contributor {[]} {[]}TriggerDefinition {[]} {[]}Expression {[]} {[]}UsageContext {[]} {[]}Dosage {[]} {[]}</t>
+boolean {[]} {[]}canonical {[]} {[]}code {[]} {[]}date {[]} {[]}dateTime {[]} {[]}decimal {[]} {[]}id {[]} {[]}instant {[]} {[]}integer {[]} {[]}markdown {[]} {[]}oid {[]} {[]}positiveInt {[]} {[]}string {[]} {[]}time {[]} {[]}unsignedInt {[]} {[]}uri {[]} {[]}url {[]} {[]}uuid {[]} {[]}Address {[]} {[]}Age {[]} {[]}Annotation {[]} {[]}Attachment {[]} {[]}CodeableConcept {[]} {[]}Coding {[]} {[]}ContactPoint {[]} {[]}Count {[]} {[]}Distance {[]} {[]}Duration {[]} {[]}HumanName {[]} {[]}Identifier {[]} {[]}Money {[]} {[]}Period {[]} {[]}Quantity {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}Reference {[]} {[]}SampledData {[]} {[]}Signature {[]} {[]}Timing {[]} {[]}ContactDetail {[]} {[]}Contributor {[]} {[]}DataRequirement {[]} {[]}Expression {[]} {[]}ParameterDefinition {[]} {[]}RelatedArtifact {[]} {[]}TriggerDefinition {[]} {[]}UsageContext {[]} {[]}Dosage {[]} {[]}</t>
   </si>
 </sst>
 </file>

--- a/docs/extension-complex.xlsx
+++ b/docs/extension-complex.xlsx
@@ -150,7 +150,7 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
@@ -164,7 +164,7 @@
     <t>xml:id (or equivalent in JSON)</t>
   </si>
   <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -184,10 +184,10 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -221,7 +221,7 @@
     <t>Extension.extension.url</t>
   </si>
   <si>
-    <t xml:space="preserve">null {[]} {[]}
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -287,7 +287,7 @@
   </si>
   <si>
     <t>base64Binary {[]} {[]}
-boolean {[]} {[]}canonical {[]} {[]}code {[]} {[]}date {[]} {[]}dateTime {[]} {[]}decimal {[]} {[]}id {[]} {[]}instant {[]} {[]}integer {[]} {[]}markdown {[]} {[]}oid {[]} {[]}positiveInt {[]} {[]}string {[]} {[]}time {[]} {[]}unsignedInt {[]} {[]}uri {[]} {[]}url {[]} {[]}uuid {[]} {[]}Address {[]} {[]}Age {[]} {[]}Annotation {[]} {[]}Attachment {[]} {[]}CodeableConcept {[]} {[]}Coding {[]} {[]}ContactPoint {[]} {[]}Count {[]} {[]}Distance {[]} {[]}Duration {[]} {[]}HumanName {[]} {[]}Identifier {[]} {[]}Money {[]} {[]}Period {[]} {[]}Quantity {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}Reference {[]} {[]}SampledData {[]} {[]}Signature {[]} {[]}Timing {[]} {[]}ContactDetail {[]} {[]}Contributor {[]} {[]}DataRequirement {[]} {[]}Expression {[]} {[]}ParameterDefinition {[]} {[]}RelatedArtifact {[]} {[]}TriggerDefinition {[]} {[]}UsageContext {[]} {[]}Dosage {[]} {[]}</t>
+boolean {[]} {[]}code {[]} {[]}date {[]} {[]}dateTime {[]} {[]}decimal {[]} {[]}id {[]} {[]}instant {[]} {[]}integer {[]} {[]}markdown {[]} {[]}oid {[]} {[]}positiveInt {[]} {[]}string {[]} {[]}time {[]} {[]}unsignedInt {[]} {[]}uri {[]} {[]}Address {[]} {[]}Age {[]} {[]}Annotation {[]} {[]}Attachment {[]} {[]}CodeableConcept {[]} {[]}Coding {[]} {[]}ContactPoint {[]} {[]}Count {[]} {[]}Distance {[]} {[]}Duration {[]} {[]}HumanName {[]} {[]}Identifier {[]} {[]}Money {[]} {[]}Period {[]} {[]}Quantity {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}Reference {[]} {[]}SampledData {[]} {[]}Signature {[]} {[]}Timing {[]} {[]}Meta {[]} {[]}</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="42.953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="43.28515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/docs/extension-complex.xlsx
+++ b/docs/extension-complex.xlsx
@@ -150,7 +150,7 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
@@ -164,7 +164,7 @@
     <t>xml:id (or equivalent in JSON)</t>
   </si>
   <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -184,10 +184,10 @@
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -221,7 +221,7 @@
     <t>Extension.extension.url</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">null {[]} {[]}
 </t>
   </si>
   <si>
@@ -287,7 +287,7 @@
   </si>
   <si>
     <t>base64Binary {[]} {[]}
-boolean {[]} {[]}code {[]} {[]}date {[]} {[]}dateTime {[]} {[]}decimal {[]} {[]}id {[]} {[]}instant {[]} {[]}integer {[]} {[]}markdown {[]} {[]}oid {[]} {[]}positiveInt {[]} {[]}string {[]} {[]}time {[]} {[]}unsignedInt {[]} {[]}uri {[]} {[]}Address {[]} {[]}Age {[]} {[]}Annotation {[]} {[]}Attachment {[]} {[]}CodeableConcept {[]} {[]}Coding {[]} {[]}ContactPoint {[]} {[]}Count {[]} {[]}Distance {[]} {[]}Duration {[]} {[]}HumanName {[]} {[]}Identifier {[]} {[]}Money {[]} {[]}Period {[]} {[]}Quantity {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}Reference {[]} {[]}SampledData {[]} {[]}Signature {[]} {[]}Timing {[]} {[]}Meta {[]} {[]}</t>
+boolean {[]} {[]}canonical {[]} {[]}code {[]} {[]}date {[]} {[]}dateTime {[]} {[]}decimal {[]} {[]}id {[]} {[]}instant {[]} {[]}integer {[]} {[]}markdown {[]} {[]}oid {[]} {[]}positiveInt {[]} {[]}string {[]} {[]}time {[]} {[]}unsignedInt {[]} {[]}uri {[]} {[]}url {[]} {[]}uuid {[]} {[]}Address {[]} {[]}Age {[]} {[]}Annotation {[]} {[]}Attachment {[]} {[]}CodeableConcept {[]} {[]}Coding {[]} {[]}ContactPoint {[]} {[]}Count {[]} {[]}Distance {[]} {[]}Duration {[]} {[]}HumanName {[]} {[]}Identifier {[]} {[]}Money {[]} {[]}Period {[]} {[]}Quantity {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}Reference {[]} {[]}SampledData {[]} {[]}Signature {[]} {[]}Timing {[]} {[]}ContactDetail {[]} {[]}Contributor {[]} {[]}DataRequirement {[]} {[]}Expression {[]} {[]}ParameterDefinition {[]} {[]}RelatedArtifact {[]} {[]}TriggerDefinition {[]} {[]}UsageContext {[]} {[]}Dosage {[]} {[]}</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="43.28515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="42.953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/docs/extension-complex.xlsx
+++ b/docs/extension-complex.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="89">
   <si>
     <t>Path</t>
   </si>
@@ -281,6 +281,10 @@
   </si>
   <si>
     <t>Extension.extension.valueString</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
   </si>
   <si>
     <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.fhir.org/guides/test3/StructureDefinition/extension-complex"/&gt;</t>
@@ -1932,7 +1936,7 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>67</v>
@@ -1949,7 +1953,7 @@
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>37</v>
@@ -2034,7 +2038,7 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>75</v>

--- a/docs/extension-complex.xlsx
+++ b/docs/extension-complex.xlsx
@@ -161,7 +161,7 @@
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
+    <t>Unique id for inter-element referencing</t>
   </si>
   <si>
     <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
@@ -253,7 +253,7 @@
     <t>Value of extension</t>
   </si>
   <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](extensibility.html) for a list).</t>
   </si>
   <si>
     <t>required</t>

--- a/docs/extension-complex.xlsx
+++ b/docs/extension-complex.xlsx
@@ -253,7 +253,7 @@
     <t>Value of extension</t>
   </si>
   <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](extensibility.html) for a list).</t>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://build.fhir.org/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>required</t>

--- a/docs/extension-complex.xlsx
+++ b/docs/extension-complex.xlsx
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK16"/>
+  <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>

--- a/docs/extension-complex.xlsx
+++ b/docs/extension-complex.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="87">
   <si>
     <t>Path</t>
   </si>
@@ -157,7 +157,7 @@
     <t>Extension.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -180,7 +180,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -221,7 +221,7 @@
     <t>Extension.extension.url</t>
   </si>
   <si>
-    <t xml:space="preserve">null {[]} {[]}
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
@@ -234,9 +234,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="code"/&gt;</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -246,7 +243,7 @@
     <t>Extension.extension.valueCode</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -277,21 +274,18 @@
     <t>an example of a complex extension - extension string.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="text"/&gt;</t>
-  </si>
-  <si>
     <t>Extension.extension.valueString</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.fhir.org/guides/test3/StructureDefinition/extension-complex"/&gt;</t>
-  </si>
-  <si>
-    <t>base64Binary {[]} {[]}
-boolean {[]} {[]}canonical {[]} {[]}code {[]} {[]}date {[]} {[]}dateTime {[]} {[]}decimal {[]} {[]}id {[]} {[]}instant {[]} {[]}integer {[]} {[]}markdown {[]} {[]}oid {[]} {[]}positiveInt {[]} {[]}string {[]} {[]}time {[]} {[]}unsignedInt {[]} {[]}uri {[]} {[]}url {[]} {[]}uuid {[]} {[]}Address {[]} {[]}Age {[]} {[]}Annotation {[]} {[]}Attachment {[]} {[]}CodeableConcept {[]} {[]}Coding {[]} {[]}ContactPoint {[]} {[]}Count {[]} {[]}Distance {[]} {[]}Duration {[]} {[]}HumanName {[]} {[]}Identifier {[]} {[]}Money {[]} {[]}Period {[]} {[]}Quantity {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}Reference {[]} {[]}SampledData {[]} {[]}Signature {[]} {[]}Timing {[]} {[]}ContactDetail {[]} {[]}Contributor {[]} {[]}DataRequirement {[]} {[]}Expression {[]} {[]}ParameterDefinition {[]} {[]}RelatedArtifact {[]} {[]}TriggerDefinition {[]} {[]}UsageContext {[]} {[]}Dosage {[]} {[]}</t>
+    <t>http://www.fhir.org/guides/test3/StructureDefinition/extension-complex</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosage</t>
   </si>
 </sst>
 </file>
@@ -344,67 +338,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1245,69 +1239,69 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE8" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="R8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE8" t="s" s="2">
+      <c r="AF8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>72</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1330,13 +1324,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1363,32 +1357,32 @@
         <v>37</v>
       </c>
       <c r="W9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X9" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="X9" t="s" s="2">
+      <c r="Y9" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="Z9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Z9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
@@ -1402,7 +1396,7 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" hidden="true">
@@ -1410,7 +1404,7 @@
         <v>51</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>37</v>
@@ -1435,10 +1429,10 @@
         <v>53</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1751,7 +1745,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>37</v>
@@ -1793,27 +1787,27 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>72</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1839,10 +1833,10 @@
         <v>46</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1893,7 +1887,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -1908,12 +1902,12 @@
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1936,7 +1930,7 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>67</v>
@@ -1953,7 +1947,7 @@
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>37</v>
@@ -1995,27 +1989,27 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>72</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2038,13 +2032,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2095,7 +2089,7 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
@@ -2110,7 +2104,7 @@
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/docs/extension-complex.xlsx
+++ b/docs/extension-complex.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$16</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="85">
   <si>
     <t>Path</t>
   </si>
@@ -221,10 +221,6 @@
     <t>Extension.extension.url</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t>identifies the meaning of the extension</t>
   </si>
   <si>
@@ -253,38 +249,32 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://build.fhir.org/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
+    <t>required</t>
+  </si>
+  <si>
+    <t>A bunch of example codes</t>
+  </si>
+  <si>
+    <t>http://www.fhir.org/guides/test3/ValueSet/blah-codes</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>an example of a complex extension - extension string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCode</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A bunch of example codes</t>
-  </si>
-  <si>
-    <t>http://www.fhir.org/guides/test3/ValueSet/blah-codes</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>an example of a complex extension - extension string.</t>
-  </si>
-  <si>
-    <t>valueString</t>
+    <t>http://www.fhir.org/guides/test3/StructureDefinition/extension-complex</t>
   </si>
   <si>
     <t>base64Binary
@@ -437,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1225,16 +1215,16 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>69</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1284,27 +1274,27 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>71</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1327,13 +1317,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>74</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1360,26 +1350,28 @@
         <v>37</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>78</v>
@@ -1397,12 +1389,12 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>79</v>
@@ -1427,13 +1419,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1460,13 +1452,13 @@
         <v>37</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>37</v>
@@ -1484,13 +1476,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1499,16 +1491,14 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>37</v>
       </c>
@@ -1529,13 +1519,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1586,13 +1576,13 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>37</v>
@@ -1601,23 +1591,23 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -1629,15 +1619,17 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>37</v>
@@ -1674,25 +1666,25 @@
         <v>37</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -1706,18 +1698,18 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>37</v>
@@ -1729,16 +1721,16 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -1746,7 +1738,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>37</v>
@@ -1776,25 +1768,25 @@
         <v>37</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>37</v>
@@ -1803,12 +1795,12 @@
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1816,7 +1808,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>39</v>
@@ -1831,24 +1823,22 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>37</v>
@@ -1890,27 +1880,27 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>71</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1918,7 +1908,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>39</v>
@@ -1933,22 +1923,24 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>68</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>37</v>
@@ -1978,20 +1970,22 @@
         <v>37</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB15" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="AC15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -2003,16 +1997,14 @@
         <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>37</v>
       </c>
@@ -2021,7 +2013,7 @@
         <v>38</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>37</v>
@@ -2033,13 +2025,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>74</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2105,213 +2097,11 @@
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
-      <c r="A17" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ18">
+  <autoFilter ref="A1:AJ16">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2321,7 +2111,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI17">
+  <conditionalFormatting sqref="A2:AI15">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/extension-complex.xlsx
+++ b/docs/extension-complex.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$24</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="89">
   <si>
     <t>Path</t>
   </si>
@@ -218,22 +218,47 @@
     <t>Extension.extension.extension</t>
   </si>
   <si>
+    <t>Extension.extension.extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosage</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://build.fhir.org/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
     <t>Extension.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Extension.extension.value[x]</t>
@@ -243,12 +268,6 @@
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://build.fhir.org/extensibility.html) for a list).</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -256,9 +275,6 @@
   </si>
   <si>
     <t>http://www.fhir.org/guides/test3/ValueSet/blah-codes</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>text</t>
@@ -275,10 +291,6 @@
   </si>
   <si>
     <t>http://www.fhir.org/guides/test3/StructureDefinition/extension-complex</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosage</t>
   </si>
 </sst>
 </file>
@@ -427,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -436,7 +448,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.62890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1200,7 +1212,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>39</v>
@@ -1218,21 +1230,19 @@
         <v>46</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>37</v>
@@ -1274,10 +1284,10 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -1289,23 +1299,23 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1317,15 +1327,17 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>37</v>
@@ -1350,37 +1362,37 @@
         <v>37</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -1389,22 +1401,20 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>39</v>
@@ -1419,15 +1429,17 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>37</v>
@@ -1476,13 +1488,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1491,12 +1503,12 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1519,13 +1531,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1576,7 +1588,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1591,23 +1603,23 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -1619,16 +1631,16 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -1636,7 +1648,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>37</v>
@@ -1666,25 +1678,25 @@
         <v>37</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -1693,12 +1705,12 @@
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1706,7 +1718,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>39</v>
@@ -1721,24 +1733,22 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>37</v>
@@ -1756,13 +1766,13 @@
         <v>37</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>37</v>
@@ -1780,10 +1790,10 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -1795,14 +1805,16 @@
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="C14" t="s" s="2">
         <v>37</v>
       </c>
@@ -1823,13 +1835,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1880,13 +1892,13 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>37</v>
@@ -1895,12 +1907,12 @@
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>70</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1908,7 +1920,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>39</v>
@@ -1923,24 +1935,22 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>37</v>
@@ -1982,10 +1992,10 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -1997,23 +2007,23 @@
         <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>37</v>
@@ -2025,15 +2035,17 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>37</v>
@@ -2070,38 +2082,846 @@
         <v>37</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>70</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ16">
+  <autoFilter ref="A1:AJ24">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2111,7 +2931,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI15">
+  <conditionalFormatting sqref="A2:AI23">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/extension-complex.xlsx
+++ b/docs/extension-complex.xlsx
@@ -150,7 +150,7 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
@@ -161,10 +161,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -184,10 +184,10 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -227,6 +227,10 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
     <t>identifies the meaning of the extension</t>
   </si>
   <si>
@@ -246,13 +250,13 @@
   </si>
   <si>
     <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosage</t>
+booleancodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingMeta</t>
   </si>
   <si>
     <t>Value of extension</t>
   </si>
   <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://build.fhir.org/extensibility.html) for a list).</t>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -284,10 +288,6 @@
   </si>
   <si>
     <t>an example of a complex extension - extension string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
   </si>
   <si>
     <t>http://www.fhir.org/guides/test3/StructureDefinition/extension-complex</t>
@@ -458,7 +458,7 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="42.953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="43.28515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1429,16 +1429,16 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -1488,7 +1488,7 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>39</v>
@@ -1503,12 +1503,12 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1531,13 +1531,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1588,7 +1588,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1603,12 +1603,12 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1631,16 +1631,16 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -1690,7 +1690,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>39</v>
@@ -1705,12 +1705,12 @@
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1733,13 +1733,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1766,13 +1766,13 @@
         <v>37</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>37</v>
@@ -1790,7 +1790,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1805,7 +1805,7 @@
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" hidden="true">
@@ -1813,7 +1813,7 @@
         <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>37</v>
@@ -1838,10 +1838,10 @@
         <v>53</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2339,16 +2339,16 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -2398,7 +2398,7 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -2413,12 +2413,12 @@
         <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2441,13 +2441,13 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2498,7 +2498,7 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
@@ -2513,12 +2513,12 @@
         <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2541,16 +2541,16 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>37</v>
@@ -2600,7 +2600,7 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
@@ -2615,12 +2615,12 @@
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2646,10 +2646,10 @@
         <v>46</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2700,7 +2700,7 @@
         <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>38</v>
@@ -2715,12 +2715,12 @@
         <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2743,16 +2743,16 @@
         <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -2802,7 +2802,7 @@
         <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -2817,12 +2817,12 @@
         <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -2845,13 +2845,13 @@
         <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2902,7 +2902,7 @@
         <v>37</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>38</v>
@@ -2917,7 +2917,7 @@
         <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
